--- a/address_list.xlsx
+++ b/address_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelss/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelss/Data Science - Projetos/Address Clustering/Public/address_clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2204189-F1A4-E249-B923-A77D1DEB35B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329F4999-428C-A540-AEEF-55EBFD3D20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3335,6 +3335,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="97.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
